--- a/Fechas.xlsx
+++ b/Fechas.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/Documents/GrupoSINET/gsinet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SourceCode\Mio\gsinet\gsinet\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352DE23A-B842-4983-8EBF-7AAA11BDABDB}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="15465" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="34">
   <si>
     <t>AUTENTICACIÓN Y AUTORIZACIÓN</t>
   </si>
@@ -120,12 +122,18 @@
   </si>
   <si>
     <t>2 semanas</t>
+  </si>
+  <si>
+    <t>PROCESOS (1)</t>
+  </si>
+  <si>
+    <t>PROCESOS (2)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -135,7 +143,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -145,6 +153,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -176,13 +190,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -192,6 +209,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -459,21 +479,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="53.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>30</v>
       </c>
@@ -484,19 +504,22 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3">
         <v>43283</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="3">
+        <f>D5</f>
+        <v>43297</v>
+      </c>
       <c r="I2" s="4">
         <v>43282</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -506,7 +529,7 @@
         <v>43313</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -519,7 +542,7 @@
         <v>43344</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -531,57 +554,56 @@
         <v>43374</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="3">
         <v>43298</v>
       </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D6" s="3">
+        <f>D16</f>
+        <v>43312</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="5">
-        <v>43313</v>
-      </c>
+      <c r="D10" s="5"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="5">
-        <v>43314</v>
-      </c>
+      <c r="C11" s="5"/>
       <c r="D11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
@@ -589,7 +611,7 @@
       <c r="D12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
@@ -597,43 +619,46 @@
       <c r="D13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="5">
-        <v>43328</v>
-      </c>
+      <c r="D14" s="5"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="5">
-        <v>43329</v>
-      </c>
+      <c r="C15" s="5"/>
       <c r="D15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="5"/>
+      <c r="D16" s="5">
+        <v>43312</v>
+      </c>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="2"/>
+      <c r="C17" s="3">
+        <v>43313</v>
+      </c>
+      <c r="D17" s="3">
+        <f>D25</f>
+        <v>43343</v>
+      </c>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
@@ -641,95 +666,543 @@
       <c r="D18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="5">
-        <v>43343</v>
-      </c>
+      <c r="D19" s="5"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="5">
-        <v>43346</v>
-      </c>
+      <c r="C20" s="5"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="5">
-        <v>43360</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="5">
-        <v>43361</v>
-      </c>
+      <c r="C23" s="5"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="5">
-        <v>43375</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+        <v>43343</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C26" s="3">
-        <v>43288</v>
-      </c>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+        <v>43346</v>
+      </c>
+      <c r="D26" s="3">
+        <f>D29</f>
+        <v>43371</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C29" s="1"/>
+      <c r="D29" s="5">
+        <v>43371</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA8CE349-9773-4E4A-941A-041E408EBE5E}">
+  <dimension ref="B1:H30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="55.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>43283</v>
+      </c>
+      <c r="H2" s="3">
+        <f>H5</f>
+        <v>43297</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>43283</v>
+      </c>
+      <c r="D3" s="3">
+        <f>D6</f>
+        <v>43297</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7">
+        <v>43283</v>
+      </c>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="5"/>
+      <c r="F4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="7">
+        <v>43297</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="5">
+        <v>43297</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="3">
+        <v>43298</v>
+      </c>
+      <c r="H6" s="3">
+        <f>H12</f>
+        <v>43319</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="3">
+        <v>43298</v>
+      </c>
+      <c r="D7" s="3">
+        <f>D15</f>
+        <v>43319</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="5"/>
+      <c r="F9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="5"/>
+      <c r="F12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="7">
+        <v>43319</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="1"/>
+      <c r="F13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="3">
+        <v>43320</v>
+      </c>
+      <c r="H13" s="3">
+        <f>H16</f>
+        <v>43341</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="5">
+        <v>43319</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="3">
+        <v>43320</v>
+      </c>
+      <c r="D16" s="3">
+        <f>D19</f>
+        <v>43347</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="5">
+        <v>43341</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="F17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="3">
+        <v>43342</v>
+      </c>
+      <c r="H17" s="3">
+        <f>H19</f>
+        <v>43356</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="5">
+        <v>43347</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="7">
+        <v>43356</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="3">
+        <v>43348</v>
+      </c>
+      <c r="D20" s="3">
+        <f>D30</f>
+        <v>43371</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="3">
+        <v>43357</v>
+      </c>
+      <c r="H20" s="3">
+        <f>H30</f>
+        <v>43371</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="F21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="F22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="F23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="5"/>
+      <c r="F24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="1"/>
+      <c r="F25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="F26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="F27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="5"/>
+      <c r="F28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="6"/>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="5"/>
       <c r="D29" s="1"/>
+      <c r="F29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="5">
+        <v>43371</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="7">
+        <v>43371</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
